--- a/Publication Data/Publication_Data.xlsx
+++ b/Publication Data/Publication_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyattpetryshen/Documents/GitHub/Repository-Petryshen-2023-Spatial-Distribution-of-Selenium-and-other-Potentially-Toxic-Elements/Publication Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EDBC95-2C15-224A-8795-F998AC95BDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85122B14-E218-A241-9C6A-B51F6B92ED1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30020" yWindow="1240" windowWidth="25820" windowHeight="19440" firstSheet="3" activeTab="4" xr2:uid="{ABD24E13-A938-3945-83C7-0A1A202B73AE}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{ABD24E13-A938-3945-83C7-0A1A202B73AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Data" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="127">
   <si>
     <t>Site</t>
   </si>
@@ -595,7 +595,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -883,7 +883,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F08247-5E76-4945-AAAA-8D6032759AD2}">
   <dimension ref="A1:BU34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3349,9 +3349,6 @@
       <c r="J12">
         <f>51-6</f>
         <v>45</v>
-      </c>
-      <c r="K12" t="s">
-        <v>83</v>
       </c>
       <c r="L12" t="s">
         <v>75</v>
@@ -21026,8 +21023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071D7648-2240-C04B-A65E-C4EEFE320E0B}">
   <dimension ref="A1:BB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AZ2" sqref="AZ2:BB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21203,160 +21200,160 @@
       <c r="B2" s="5">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="5">
         <v>1.6E-2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>0.03</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>0.17</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
         <v>31.7</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <v>0.02</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="5">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="5">
         <v>0.266666666666667</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="5">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="5">
         <v>0.51700000000000002</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="5">
         <v>0.21299999999999999</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="5">
         <v>1.37</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="5">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="5">
         <v>1.92</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="5">
         <v>370</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="5">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="5">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="5">
         <v>3.1E-2</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
+      <c r="V2" s="5">
+        <v>0</v>
+      </c>
+      <c r="W2" s="5">
         <v>0.28333333333333299</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="5">
         <v>0.253</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="5">
         <v>0.2</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="5">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="5">
         <v>37</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="5">
         <v>0.09</v>
       </c>
-      <c r="AC2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD2">
+      <c r="AC2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="5">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="AE2" s="16">
+      <c r="AE2" s="5">
         <v>1.43</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="5">
         <v>7.8E-2</v>
       </c>
-      <c r="AG2" s="16">
+      <c r="AG2" s="5">
         <v>0.63</v>
       </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
+      <c r="AH2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="5">
         <v>1.51</v>
       </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
+      <c r="AK2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="5">
         <v>0.05</v>
       </c>
-      <c r="AM2" s="16">
+      <c r="AM2" s="5">
         <v>0.05</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="5">
         <v>0.1</v>
       </c>
-      <c r="AO2" s="16">
+      <c r="AO2" s="5">
         <v>9.4E-2</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="5">
         <v>0.02</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="5">
         <v>7.51</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="5">
         <v>1E-3</v>
       </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
+      <c r="AS2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="5">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" s="5">
         <v>1E-3</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AX2" s="16">
+      <c r="AX2" s="5">
         <v>1.03</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" s="5">
         <v>0.02</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" s="5">
         <v>0.22600000000000001</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" s="5">
         <v>13.5</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" s="5">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -21364,163 +21361,163 @@
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>0.663333333333333</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>9</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>115.2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>8.6666666666666697E-2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="5">
         <v>0.77</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="5">
         <v>0.45400000000000001</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="5">
         <v>1.2816666666666701</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="5">
         <v>1.081</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="5">
         <v>2.67</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="5">
         <v>0.221</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="5">
         <v>5.32</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="5">
         <v>1073.3333333333301</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="5">
         <v>0.23266666666666699</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="5">
         <v>4.7E-2</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="5">
         <v>2.5666666666666699E-2</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="5">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="5">
         <v>0.72</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="5">
         <v>0.65200000000000002</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="5">
         <v>0.5</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="5">
         <v>0.20899999999999999</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="5">
         <v>395</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="5">
         <v>2.04</v>
       </c>
-      <c r="AC3" s="16">
+      <c r="AC3" s="5">
         <v>1E-3</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="5">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="AE3" s="16">
+      <c r="AE3" s="5">
         <v>5.3066666666666702</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="5">
         <v>0.221</v>
       </c>
-      <c r="AG3" s="16">
+      <c r="AG3" s="5">
         <v>2.14</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="5">
         <v>3.33333333333333E-4</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="5">
         <v>12.45</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="5">
         <v>1.33333333333333E-3</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="5">
         <v>0.11</v>
       </c>
-      <c r="AM3" s="16">
+      <c r="AM3" s="5">
         <v>0.353333333333333</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="5">
         <v>0.24333333333333301</v>
       </c>
-      <c r="AO3" s="16">
+      <c r="AO3" s="5">
         <v>0.55500000000000005</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" s="5">
         <v>5.3333333333333302E-2</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" s="5">
         <v>20.7</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" s="5">
         <v>2E-3</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" s="5">
         <v>0.109333333333333</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" s="5">
         <v>2E-3</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" s="5">
         <v>0.13</v>
       </c>
-      <c r="AX3" s="16">
+      <c r="AX3" s="5">
         <v>5.74</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" s="5">
         <v>0.17</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" s="5">
         <v>0.995</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" s="5">
         <v>47.2</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" s="5">
         <v>1.17</v>
       </c>
     </row>
@@ -21528,163 +21525,163 @@
       <c r="A4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="5">
         <v>0.02</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>0.06</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>0.31</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>35</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>0.03</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <v>0.69</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="5">
         <v>0.315</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="5">
         <v>0.93799999999999994</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="5">
         <v>0.32500000000000001</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="5">
         <v>2.13</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="5">
         <v>3.2</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="5">
         <v>670</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="5">
         <v>0.158</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
         <v>0.38</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="5">
         <v>0.46200000000000002</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="5">
         <v>0.4</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="5">
         <v>0.10100000000000001</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="5">
         <v>52.1</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="5">
         <v>1.64</v>
       </c>
-      <c r="AC4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD4">
+      <c r="AC4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="5">
         <v>0.05</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="5">
         <v>1.52</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="5">
         <v>0.152</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="5">
         <v>1</v>
       </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
+      <c r="AH4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="5">
         <v>1.84</v>
       </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
+      <c r="AK4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="5">
         <v>0.06</v>
       </c>
-      <c r="AM4" s="16">
+      <c r="AM4" s="5">
         <v>0.1</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="5">
         <v>0.1</v>
       </c>
-      <c r="AO4" s="16">
+      <c r="AO4" s="5">
         <v>9.4E-2</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" s="5">
         <v>0.05</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" s="5">
         <v>10.7</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="5">
         <v>2E-3</v>
       </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
+      <c r="AS4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" s="5">
         <v>2E-3</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AX4" s="16">
+      <c r="AX4" s="5">
         <v>1.66</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" s="5">
         <v>0.15</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" s="5">
         <v>0.36699999999999999</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" s="5">
         <v>23.1</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" s="5">
         <v>0.53</v>
       </c>
     </row>
@@ -21695,97 +21692,97 @@
       <c r="B5" s="5">
         <v>5.4038823911630901E-7</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="5">
         <v>3.54694119558155E-4</v>
       </c>
       <c r="D5" s="5">
         <v>9.4558154645873999E-5</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>1.8283820662767999E-2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>7.2324561403508802</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>760.66035087719297</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>3.47092267706303E-4</v>
       </c>
       <c r="I5" s="5">
         <v>2.0586094866796601E-5</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="5">
         <v>1.9442235217673801E-2</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="5">
         <v>7.5276538336582202E-3</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="5">
         <v>4.1579842755035699E-2</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="5">
         <v>4.7668864197530803E-2</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="5">
         <v>0.162229710851202</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="5">
         <v>2.0506025016244298E-3</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="5">
         <v>0.87136765756985102</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="5">
         <v>35384.226770630303</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="5">
         <v>1.29479288499025E-3</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="5">
         <v>1.4243274853801199E-4</v>
       </c>
       <c r="T5" s="5">
         <v>2.10675763482781E-5</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="5">
         <v>4.34059616634178E-4</v>
       </c>
       <c r="V5" s="5">
         <v>1.41325536062378E-6</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="5">
         <v>1.36688271604938E-2</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="5">
         <v>1.1708818875893401E-2</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="5">
         <v>5.50519818063678E-3</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="5">
         <v>1.35553801169591E-3</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="5">
         <v>6905.6310461338498</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="5">
         <v>0.238401250812216</v>
       </c>
-      <c r="AC5" s="16">
+      <c r="AC5" s="5">
         <v>1.0136452241715399E-7</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="5">
         <v>2.2737183235867401E-4</v>
       </c>
-      <c r="AE5" s="16">
+      <c r="AE5" s="5">
         <v>1.2174062865497099</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="5">
         <v>1.5154049707602299E-3</v>
       </c>
-      <c r="AG5" s="16">
+      <c r="AG5" s="5">
         <v>0.16279501299545199</v>
       </c>
       <c r="AH5" s="5">
@@ -21794,28 +21791,28 @@
       <c r="AI5" s="5">
         <v>5.3817413905133198E-7</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="5">
         <v>9.5894685347628297</v>
       </c>
       <c r="AK5" s="5">
         <v>1.79174788823912E-7</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="5">
         <v>2.3242365172189701E-4</v>
       </c>
-      <c r="AM5" s="16">
+      <c r="AM5" s="5">
         <v>5.8646523716699202E-3</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="5">
         <v>1.94459064327485E-3</v>
       </c>
-      <c r="AO5" s="16">
+      <c r="AO5" s="5">
         <v>1.8552460038986401E-2</v>
       </c>
       <c r="AP5" s="5">
         <v>9.5142949967511398E-5</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" s="5">
         <v>9.6012481643924605</v>
       </c>
       <c r="AR5" s="5">
@@ -21824,31 +21821,31 @@
       <c r="AS5" s="5">
         <v>2.8752436647173501E-6</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" s="5">
         <v>5.1137361923326804E-4</v>
       </c>
       <c r="AU5" s="5">
         <v>1.44736842105263E-7</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" s="5">
         <v>2.87222871994802E-4</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" s="5">
         <v>1.0020255035737499E-3</v>
       </c>
-      <c r="AX5" s="16">
+      <c r="AX5" s="5">
         <v>1.8171290935672499</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" s="5">
         <v>1.9981156595191701E-3</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" s="5">
         <v>5.2211604938271601E-2</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" s="5">
         <v>69.813734567901193</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" s="5">
         <v>5.8555116959064298E-2</v>
       </c>
     </row>
@@ -21859,160 +21856,160 @@
       <c r="B6" s="5">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="5">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>5.3333333333333302E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>0.39</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>56.8</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>0.05</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="5">
         <v>0.59</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="5">
         <v>0.20799999999999999</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="5">
         <v>0.95099999999999996</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="5">
         <v>0.41899999999999998</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="5">
         <v>1.88</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="5">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="5">
         <v>3.2</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="5">
         <v>760</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="5">
         <v>0.16300000000000001</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="5">
         <v>1.6E-2</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="5">
         <v>4.7333333333333297E-2</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
         <v>0.42</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="5">
         <v>0.46200000000000002</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="5">
         <v>0.3</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="5">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="5">
         <v>89.1</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="5">
         <v>0.41</v>
       </c>
-      <c r="AC6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD6">
+      <c r="AC6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="AE6" s="16">
+      <c r="AE6" s="5">
         <v>2.09</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="5">
         <v>0.152</v>
       </c>
-      <c r="AG6" s="16">
+      <c r="AG6" s="5">
         <v>1.31666666666667</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="5">
         <v>0</v>
       </c>
       <c r="AI6" s="5">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" s="5">
         <v>2.96</v>
       </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
+      <c r="AK6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="5">
         <v>0.06</v>
       </c>
-      <c r="AM6" s="16">
+      <c r="AM6" s="5">
         <v>0.11</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AO6" s="16">
+      <c r="AO6" s="5">
         <v>0.20399999999999999</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" s="5">
         <v>0.04</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" s="5">
         <v>12.65</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" s="5">
         <v>1.66666666666667E-3</v>
       </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
+      <c r="AS6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="5">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" s="5">
         <v>1E-3</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" s="5">
         <v>2.3E-2</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" s="5">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="AX6" s="16">
+      <c r="AX6" s="5">
         <v>2.58</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" s="5">
         <v>0.05</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" s="5">
         <v>0.53400000000000003</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" s="5">
         <v>30.733333333333299</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" s="5">
         <v>0.69</v>
       </c>
     </row>
@@ -22020,163 +22017,163 @@
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>6.4649122807017496E-4</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="5">
         <v>4.1149122807017498E-2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>5.4122807017543899E-2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>0.41964912280701799</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>3.2368421052631602</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>67.042105263157893</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <v>4.9649122807017498E-2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <v>1.7315789473684201E-2</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="5">
         <v>0.56122807017543896</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="5">
         <v>0.22295614035087699</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="5">
         <v>0.93561403508771901</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="5">
         <v>0.50733333333333297</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="5">
         <v>1.92640350877193</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="5">
         <v>0.115605263157895</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="5">
         <v>3.4872807017543899</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="5">
         <v>785.17543859649095</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="5">
         <v>0.161517543859649</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="5">
         <v>2.3561403508771901E-2</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="5">
         <v>1.56842105263158E-2</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="5">
         <v>5.4570175438596498E-2</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="5">
         <v>3.5087719298245601E-4</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="5">
         <v>0.45166666666666699</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="5">
         <v>0.46526315789473699</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="5">
         <v>0.34122807017543899</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="5">
         <v>0.13373684210526299</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="5">
         <v>104.668421052632</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="5">
         <v>0.56447368421052602</v>
       </c>
-      <c r="AC7" s="16">
+      <c r="AC7" s="5">
         <v>1.2280701754386001E-4</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="5">
         <v>5.2842105263157899E-2</v>
       </c>
-      <c r="AE7" s="16">
+      <c r="AE7" s="5">
         <v>2.5041228070175401</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="5">
         <v>0.14222807017543901</v>
       </c>
-      <c r="AG7" s="16">
+      <c r="AG7" s="5">
         <v>1.2904385964912299</v>
       </c>
       <c r="AH7" s="5">
         <v>1.7543859649122799E-5</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" s="5">
         <v>5.8771929824561397E-4</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" s="5">
         <v>4.12052631578947</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" s="5">
         <v>2.1929824561403501E-4</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" s="5">
         <v>6.7192982456140304E-2</v>
       </c>
-      <c r="AM7" s="16">
+      <c r="AM7" s="5">
         <v>0.14824561403508801</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" s="5">
         <v>0.15824561403508799</v>
       </c>
-      <c r="AO7" s="16">
+      <c r="AO7" s="5">
         <v>0.262280701754386</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" s="5">
         <v>3.8070175438596497E-2</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" s="5">
         <v>13.0994736842105</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" s="5">
         <v>1.56140350877193E-3</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" s="5">
         <v>7.0175438596491201E-4</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" s="5">
         <v>6.4947368421052601E-2</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" s="5">
         <v>1.18421052631579E-3</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" s="5">
         <v>2.8105263157894699E-2</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" s="5">
         <v>6.7973684210526297E-2</v>
       </c>
-      <c r="AX7" s="16">
+      <c r="AX7" s="5">
         <v>2.9119298245613998</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" s="5">
         <v>6.6491228070175407E-2</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" s="5">
         <v>0.55900000000000005</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" s="5">
         <v>29.8</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" s="5">
         <v>0.71131578947368401</v>
       </c>
     </row>
@@ -22184,163 +22181,163 @@
       <c r="A8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>7.3511103863043001E-4</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="5">
         <v>1.8833324708031601E-2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>9.7241017397944798E-3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>0.13521767881001401</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>2.6893226173798599</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <v>27.580071625671899</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <v>1.8630412440585001E-2</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <v>4.5371901951314101E-3</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="5">
         <v>0.139435415937536</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="5">
         <v>8.6762052958987895E-2</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <v>0.20391136004410301</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <v>0.218332004519564</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="5">
         <v>0.40277749546269598</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="5">
         <v>4.5283578719271203E-2</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="5">
         <v>0.93347075881885599</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="5">
         <v>188.10695566786001</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="5">
         <v>3.5983230608024303E-2</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="5">
         <v>1.1934519200119099E-2</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="5">
         <v>4.5899429569743102E-3</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="5">
         <v>2.0834097451873899E-2</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="5">
         <v>1.1888041725296001E-3</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="5">
         <v>0.116913759500299</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="5">
         <v>0.108207295853345</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="5">
         <v>7.4197022720839501E-2</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="5">
         <v>3.6817631804556702E-2</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="5">
         <v>83.100126631274506</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="5">
         <v>0.48826350550928499</v>
       </c>
-      <c r="AC8" s="16">
+      <c r="AC8" s="5">
         <v>3.18377955293946E-4</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="5">
         <v>1.50788538144872E-2</v>
       </c>
-      <c r="AE8" s="16">
+      <c r="AE8" s="5">
         <v>1.1033613581006501</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="5">
         <v>3.8928202768176101E-2</v>
       </c>
-      <c r="AG8" s="16">
+      <c r="AG8" s="5">
         <v>0.40347864007336398</v>
       </c>
       <c r="AH8" s="5">
         <v>7.6471911290187307E-5</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" s="5">
         <v>7.33603529879275E-4</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" s="5">
         <v>3.0966867027135399</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" s="5">
         <v>4.2329043082015401E-4</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" s="5">
         <v>1.52454469177488E-2</v>
       </c>
-      <c r="AM8" s="16">
+      <c r="AM8" s="5">
         <v>7.6581018350958999E-2</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" s="5">
         <v>4.40975128921672E-2</v>
       </c>
-      <c r="AO8" s="16">
+      <c r="AO8" s="5">
         <v>0.13620741550659601</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" s="5">
         <v>9.7541247668620403E-3</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" s="5">
         <v>3.0985880920820201</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" s="5">
         <v>4.6881294249277402E-4</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" s="5">
         <v>1.6956543470640899E-3</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" s="5">
         <v>2.2613571571807701E-2</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" s="5">
         <v>3.8044295512634102E-4</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" s="5">
         <v>1.69476509285152E-2</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" s="5">
         <v>3.1654786424390097E-2</v>
       </c>
-      <c r="AX8" s="16">
+      <c r="AX8" s="5">
         <v>1.3480093076708499</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" s="5">
         <v>4.4700287018308603E-2</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ8" s="5">
         <v>0.22849858848201099</v>
       </c>
-      <c r="BA8">
+      <c r="BA8" s="5">
         <v>8.3554613617622095</v>
       </c>
-      <c r="BB8">
+      <c r="BB8" s="5">
         <v>0.24198164591361901</v>
       </c>
     </row>
@@ -22348,163 +22345,163 @@
       <c r="A9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>1.1370781330240001</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="5">
         <v>0.45768471897582702</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>0.179667357915165</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>0.32221604064259102</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>0.83084763788971405</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <v>0.411384331047077</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <v>0.37524152265489102</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="5">
         <v>0.262026181481753</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="5">
         <v>0.248446974318211</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="5">
         <v>0.389144038923737</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="5">
         <v>0.21794388754010599</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="5">
         <v>0.430352177108207</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="5">
         <v>0.20908262138676401</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="5">
         <v>0.39170862538864198</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="5">
         <v>0.26767869829040303</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="5">
         <v>0.23957315323579501</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="5">
         <v>0.22278218048741499</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="5">
         <v>0.50652836515769895</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="5">
         <v>0.29264736973997302</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="5">
         <v>0.38178542187970199</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="5">
         <v>3.3880918917093501</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="5">
         <v>0.25884965203018301</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="5">
         <v>0.23257224221872899</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="5">
         <v>0.21744114627701</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="5">
         <v>0.27529909653151402</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="5">
         <v>0.79393694674622395</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="5">
         <v>0.86498896080899002</v>
       </c>
-      <c r="AC9" s="16">
+      <c r="AC9" s="5">
         <v>2.5925062073935599</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="5">
         <v>0.28535679529407998</v>
       </c>
-      <c r="AE9" s="16">
+      <c r="AE9" s="5">
         <v>0.44061791019537599</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="5">
         <v>0.27370267149204902</v>
       </c>
-      <c r="AG9" s="16">
+      <c r="AG9" s="5">
         <v>0.31266783337885601</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="5">
         <v>4.3588989435406704</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" s="5">
         <v>1.2482209314363799</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" s="5">
         <v>0.75152698111581495</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" s="5">
         <v>1.9302043645399001</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" s="5">
         <v>0.22689046326675799</v>
       </c>
-      <c r="AM9" s="16">
+      <c r="AM9" s="5">
         <v>0.51658201727865805</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" s="5">
         <v>0.27866499277755302</v>
       </c>
-      <c r="AO9" s="16">
+      <c r="AO9" s="5">
         <v>0.51931924306862498</v>
       </c>
-      <c r="AP9">
+      <c r="AP9" s="5">
         <v>0.25621433719407199</v>
       </c>
-      <c r="AQ9">
+      <c r="AQ9" s="5">
         <v>0.23654294567703901</v>
       </c>
-      <c r="AR9">
+      <c r="AR9" s="5">
         <v>0.30025098564143998</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" s="5">
         <v>2.4163074445663302</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" s="5">
         <v>0.34818303068423501</v>
       </c>
-      <c r="AU9">
+      <c r="AU9" s="5">
         <v>0.32126293988446603</v>
       </c>
-      <c r="AV9">
+      <c r="AV9" s="5">
         <v>0.60300630644529696</v>
       </c>
-      <c r="AW9">
+      <c r="AW9" s="5">
         <v>0.46569178634410502</v>
       </c>
-      <c r="AX9" s="16">
+      <c r="AX9" s="5">
         <v>0.46292644015687801</v>
       </c>
-      <c r="AY9">
+      <c r="AY9" s="5">
         <v>0.67227344592179195</v>
       </c>
-      <c r="AZ9">
+      <c r="AZ9" s="5">
         <v>0.40876312787479702</v>
       </c>
-      <c r="BA9">
+      <c r="BA9" s="5">
         <v>0.28038460945510801</v>
       </c>
-      <c r="BB9">
+      <c r="BB9" s="5">
         <v>0.34018877338947601</v>
       </c>
     </row>
@@ -22512,163 +22509,163 @@
       <c r="A10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>3.6542236392037801</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="5">
         <v>0.63018561523705596</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>-0.489634324047376</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>0.36443919585200002</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>0.65786066082679096</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <v>0.508755188475846</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <v>0.24815816643274799</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <v>4.1363583267910203E-2</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="5">
         <v>-0.47195697702914702</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="5">
         <v>0.74195030283935004</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="5">
         <v>-0.23928216497636901</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="5">
         <v>1.0823027980576601</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="5">
         <v>0.39461576070114701</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="5">
         <v>1.2358724692042899</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="5">
         <v>0.30180127387188599</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="5">
         <v>-0.18587511118894201</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="5">
         <v>0.133771775780234</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="5">
         <v>0.66322563686859204</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="5">
         <v>6.8385581173506502E-2</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="5">
         <v>1.0261327210233799</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="5">
         <v>3.4663379509849199</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="5">
         <v>0.65855518371578503</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="5">
         <v>1.66600382765845E-2</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="5">
         <v>0.43734731563313001</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="5">
         <v>0.470601940902238</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="5">
         <v>2.43537539859414</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="5">
         <v>2.0560692799396798</v>
       </c>
-      <c r="AC10" s="16">
+      <c r="AC10" s="5">
         <v>2.35165230168493</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="5">
         <v>0.75646596591639403</v>
       </c>
-      <c r="AE10" s="16">
+      <c r="AE10" s="5">
         <v>1.0865539237406701</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="5">
         <v>0.362471861321704</v>
       </c>
-      <c r="AG10" s="16">
+      <c r="AG10" s="5">
         <v>0.33726006335354503</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="5">
         <v>4.00693842672377</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" s="5">
         <v>1.85305854015459</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" s="5">
         <v>1.7225303546263599</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" s="5">
         <v>1.6633663302731001</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" s="5">
         <v>1.27706605693903</v>
       </c>
-      <c r="AM10" s="16">
+      <c r="AM10" s="5">
         <v>0.97041560572684304</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" s="5">
         <v>0.45427461734642699</v>
       </c>
-      <c r="AO10" s="16">
+      <c r="AO10" s="5">
         <v>0.66206259844188597</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" s="5">
         <v>-9.9335815030149894E-3</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" s="5">
         <v>0.65513270536114998</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" s="5">
         <v>-0.26508192687298099</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" s="5">
         <v>2.0079663282985498</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" s="5">
         <v>0.13125887136928299</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" s="5">
         <v>1.6237711124457599</v>
       </c>
-      <c r="AV10">
+      <c r="AV10" s="5">
         <v>2.0800020926964899</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" s="5">
         <v>0.51808864571664603</v>
       </c>
-      <c r="AX10" s="16">
+      <c r="AX10" s="5">
         <v>0.73582606184058796</v>
       </c>
-      <c r="AY10">
+      <c r="AY10" s="5">
         <v>1.0146770491709001</v>
       </c>
-      <c r="AZ10">
+      <c r="AZ10" s="5">
         <v>0.61469189683790404</v>
       </c>
-      <c r="BA10">
+      <c r="BA10" s="5">
         <v>-9.3042290819210199E-2</v>
       </c>
-      <c r="BB10">
+      <c r="BB10" s="5">
         <v>0.15753290823469601</v>
       </c>
     </row>
@@ -22676,163 +22673,163 @@
       <c r="A11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>15.306258084336999</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="5">
         <v>2.6739460097686298</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>3.4333064789999499</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>2.31686370990669</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>2.3967381021237202</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>1.8655790743121401</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <v>2.2424423466036898</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="5">
         <v>2.04903762187493</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="5">
         <v>2.4795492829204702</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="5">
         <v>3.7355305952235298</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="5">
         <v>2.5205424693543299</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="5">
         <v>3.58936043527819</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="5">
         <v>1.9927757927154</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="5">
         <v>3.2922152187200799</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="5">
         <v>2.0623764233878101</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="5">
         <v>2.7042457272569802</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="5">
         <v>2.9747570541651598</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="5">
         <v>2.03883054646567</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="5">
         <v>3.0326861870483102</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="5">
         <v>2.79535564400254</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="5">
         <v>13.812326595323</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="5">
         <v>2.6780397062124699</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="5">
         <v>2.4689225773999799</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="5">
         <v>2.7039391846340202</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="5">
         <v>2.2031019148416302</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="5">
         <v>8.9837694824680003</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="5">
         <v>6.3849921512466796</v>
       </c>
-      <c r="AC11" s="16">
+      <c r="AC11" s="5">
         <v>6.7904339250493102</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="5">
         <v>3.2646640047091902</v>
       </c>
-      <c r="AE11" s="16">
+      <c r="AE11" s="5">
         <v>3.2765820013014699</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="5">
         <v>2.8363514006430801</v>
       </c>
-      <c r="AG11" s="16">
+      <c r="AG11" s="5">
         <v>2.4006992396795099</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="5">
         <v>17.0555555555555</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" s="5">
         <v>7.0852850896353603</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" s="5">
         <v>4.8960505057009502</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" s="5">
         <v>4.24145925272623</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" s="5">
         <v>4.3004649341938501</v>
       </c>
-      <c r="AM11" s="16">
+      <c r="AM11" s="5">
         <v>3.7053778954999399</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" s="5">
         <v>1.9260502557988399</v>
       </c>
-      <c r="AO11" s="16">
+      <c r="AO11" s="5">
         <v>2.27028868562441</v>
       </c>
-      <c r="AP11">
+      <c r="AP11" s="5">
         <v>1.9122097399086599</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ11" s="5">
         <v>3.2763681474362598</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" s="5">
         <v>1.24862136043251</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" s="5">
         <v>5.2100450062242603</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" s="5">
         <v>2.11170818937088</v>
       </c>
-      <c r="AU11">
+      <c r="AU11" s="5">
         <v>3.7956841138659301</v>
       </c>
-      <c r="AV11">
+      <c r="AV11" s="5">
         <v>7.4246721759346599</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" s="5">
         <v>2.14536608000726</v>
       </c>
-      <c r="AX11" s="16">
+      <c r="AX11" s="5">
         <v>2.698572355954</v>
       </c>
-      <c r="AY11">
+      <c r="AY11" s="5">
         <v>2.8386524809663798</v>
       </c>
-      <c r="AZ11">
+      <c r="AZ11" s="5">
         <v>2.3265896572782401</v>
       </c>
-      <c r="BA11">
+      <c r="BA11" s="5">
         <v>2.8783412792959</v>
       </c>
-      <c r="BB11">
+      <c r="BB11" s="5">
         <v>2.0811456035386202</v>
       </c>
     </row>
